--- a/medicine/Bioéthique/Rat_Gunn/Rat_Gunn.xlsx
+++ b/medicine/Bioéthique/Rat_Gunn/Rat_Gunn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rat Gunn est un rat mutant découvert par le généticien Charles Kenneth Gunn en 1934 au laboratoire Connaught à Toronto[1], au Canada.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rat Gunn est un rat mutant découvert par le généticien Charles Kenneth Gunn en 1934 au laboratoire Connaught à Toronto, au Canada.  
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces rats sont ictériques en raison d'un déficit en enzyme uridine diphosphate glucuronyltransférase. Cette mutation est transmis génétiquement de manière autosomique récessive. 
-En conséquence, environ la moitié de la progéniture de deux individus Gunn souffre de jaunisse dès la naissance, en raison de taux élevés de bilirubine libre, et développe des lésions cérébrales généralisées[2]. 
-Charles Kenneth Gunn les a élevés à Connaught et a ensuite déménagé à Summerside, à l'Île-du-Prince-Édouard, au Canada, pour diriger le Canadian Experimental Fox Ranch. Ce modèle animal a été utilisé pour le développement de traitements expérimentaux pour le syndrome de Crigler-Najjar[3]. 
+En conséquence, environ la moitié de la progéniture de deux individus Gunn souffre de jaunisse dès la naissance, en raison de taux élevés de bilirubine libre, et développe des lésions cérébrales généralisées. 
+Charles Kenneth Gunn les a élevés à Connaught et a ensuite déménagé à Summerside, à l'Île-du-Prince-Édouard, au Canada, pour diriger le Canadian Experimental Fox Ranch. Ce modèle animal a été utilisé pour le développement de traitements expérimentaux pour le syndrome de Crigler-Najjar. 
 </t>
         </is>
       </c>
